--- a/data/provinsi.xlsx
+++ b/data/provinsi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -31,13 +31,109 @@
   </si>
   <si>
     <t>Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>Bangka Belitung</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>DKI Jakarta</t>
+  </si>
+  <si>
+    <t>Gorontalo</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>Jawa Barat</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>Kalimantan Barat</t>
+  </si>
+  <si>
+    <t>Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t>Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Kalimantan Utara</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Maluku</t>
+  </si>
+  <si>
+    <t>Maluku Utara</t>
+  </si>
+  <si>
+    <t>Nanggroe Aceh Darussalam (NAD)</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Barat (NTB)</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Timur (NTT)</t>
+  </si>
+  <si>
+    <t>Papua</t>
+  </si>
+  <si>
+    <t>Papua Barat</t>
+  </si>
+  <si>
+    <t>Riau</t>
+  </si>
+  <si>
+    <t>Sulawesi Barat</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Sulawesi Tenggara</t>
+  </si>
+  <si>
+    <t>Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>Sumatera Barat</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Sumatera Utara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +267,13 @@
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -514,13 +617,12 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -863,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,34 +989,391 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" tooltip="Daftar Desa/Kelurahan di Provinsi DI Yogyakarta + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=DI%20Yogyakarta"/>
-    <hyperlink ref="C3" r:id="rId2" tooltip="Daftar Desa/Kelurahan di Provinsi Jawa Tengah + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=Jawa%20Tengah"/>
+    <hyperlink ref="C5" r:id="rId1" tooltip="Daftar Desa/Kelurahan di Provinsi Bengkulu + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=Bengkulu"/>
+    <hyperlink ref="C6" r:id="rId2" tooltip="Daftar Desa/Kelurahan di Provinsi DI Yogyakarta + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=DI%20Yogyakarta"/>
+    <hyperlink ref="C7" r:id="rId3" tooltip="Daftar Desa/Kelurahan di Provinsi DKI Jakarta + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=DKI%20Jakarta"/>
+    <hyperlink ref="C8" r:id="rId4" tooltip="Daftar Desa/Kelurahan di Provinsi Gorontalo + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=Gorontalo"/>
+    <hyperlink ref="C9" r:id="rId5" tooltip="Daftar Desa/Kelurahan di Provinsi Jambi + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=Jambi"/>
+    <hyperlink ref="C10" r:id="rId6" tooltip="Daftar Desa/Kelurahan di Provinsi Jawa Barat + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=Jawa%20Barat"/>
+    <hyperlink ref="C11" r:id="rId7" tooltip="Daftar Desa/Kelurahan di Provinsi Jawa Tengah + Kode POS" display="http://www.nomor.net/_kodepos.php?_i=desa-kodepos&amp;sby=010000&amp;daerah=Provinsi&amp;jobs=Jawa%20Tengah"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId8"/>
 </worksheet>
 </file>
 
